--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\Studium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE988D6A-884A-45D3-BCE5-DF8AA8B68E21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658C6F44-79A2-47E6-8F12-64BDC929E630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,15 +753,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -771,6 +762,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,7 +1067,7 @@
   <dimension ref="B2:AA30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15.5"/>
@@ -1081,57 +1081,57 @@
   <sheetData>
     <row r="2" spans="2:27" ht="15.5" customHeight="1">
       <c r="B2" s="10"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
     </row>
     <row r="3" spans="2:27" ht="15.5" customHeight="1">
       <c r="B3" s="9"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
     </row>
     <row r="4" spans="2:27">
       <c r="B4" s="9"/>
@@ -1234,10 +1234,10 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="2:27" ht="18" thickTop="1">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1403,25 +1403,25 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="2:27" ht="18" thickTop="1">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
@@ -1470,9 +1470,9 @@
       <c r="H14" s="53"/>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1501,7 +1501,7 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
-      <c r="N15" s="3"/>
+      <c r="N15" s="46"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -1529,7 +1529,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="46"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="46"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="3"/>
@@ -1571,10 +1571,10 @@
       <c r="Y17" s="17"/>
     </row>
     <row r="18" spans="2:26" ht="18" thickTop="1">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="59"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1612,7 +1612,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="46"/>
+      <c r="M19" s="3"/>
       <c r="N19" s="46"/>
       <c r="O19" s="46"/>
       <c r="P19" s="46"/>
@@ -1767,10 +1767,10 @@
       <c r="Y24" s="17"/>
     </row>
     <row r="25" spans="2:26" ht="18" thickTop="1">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="58"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="37"/>
       <c r="E25" s="25"/>
       <c r="F25" s="24"/>
@@ -1790,8 +1790,8 @@
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="2"/>
     </row>
@@ -1841,13 +1841,13 @@
       <c r="M27" s="28"/>
       <c r="N27" s="34"/>
       <c r="O27" s="34"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
       <c r="W27" s="41"/>
       <c r="X27" s="41"/>
       <c r="Y27" s="30"/>
@@ -1870,14 +1870,14 @@
       <c r="M28" s="28"/>
       <c r="N28" s="34"/>
       <c r="O28" s="34"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
       <c r="X28" s="41"/>
       <c r="Y28" s="41"/>
       <c r="Z28" s="27"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\Studium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\Studium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658C6F44-79A2-47E6-8F12-64BDC929E630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69CDFE0-BA35-4AA2-9A9D-5CCA25B012C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>1. Vorbereitungsphase</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Einleitung verfassen</t>
-  </si>
-  <si>
-    <t>Zeitplan Bachelorarbeit</t>
   </si>
   <si>
     <t xml:space="preserve">Drucken und Binden </t>
@@ -625,7 +622,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF114595"/>
+        <color theme="4" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,7 +631,22 @@
         <color rgb="FF114595"/>
       </left>
       <right style="thin">
-        <color rgb="FF114595"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF114595"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -647,38 +659,25 @@
         <color rgb="FF114595"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF114595"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF114595"/>
-      </left>
-      <right style="thin">
         <color rgb="FF114595"/>
       </right>
       <top style="thick">
         <color rgb="FF114595"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF114595"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="-0.249977111117893"/>
@@ -689,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -748,15 +747,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -772,6 +770,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1066,72 +1066,70 @@
   </sheetPr>
   <dimension ref="B2:AA30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.69921875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.25" style="1" customWidth="1"/>
-    <col min="4" max="25" width="7.75" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.75" style="1"/>
+    <col min="2" max="2" width="5.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.19921875" style="1" customWidth="1"/>
+    <col min="4" max="25" width="7.69921875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="15.5" customHeight="1">
+    <row r="2" spans="2:27" ht="15.45" customHeight="1">
       <c r="B2" s="10"/>
-      <c r="C2" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-    </row>
-    <row r="3" spans="2:27" ht="15.5" customHeight="1">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+    </row>
+    <row r="3" spans="2:27" ht="15.45" customHeight="1">
       <c r="B3" s="9"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
     </row>
     <row r="4" spans="2:27">
       <c r="B4" s="9"/>
@@ -1160,10 +1158,10 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="2:27" ht="16" thickBot="1">
+    <row r="5" spans="2:27" ht="15.6" thickBot="1">
       <c r="B5" s="23"/>
       <c r="C5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="15">
         <v>47</v>
@@ -1234,10 +1232,10 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="2:27" ht="18" thickTop="1">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1264,7 +1262,7 @@
     <row r="7" spans="2:27">
       <c r="B7" s="7"/>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
@@ -1292,7 +1290,7 @@
     <row r="8" spans="2:27">
       <c r="B8" s="20"/>
       <c r="C8" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1320,7 +1318,7 @@
     <row r="9" spans="2:27">
       <c r="B9" s="20"/>
       <c r="C9" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -1348,7 +1346,7 @@
     <row r="10" spans="2:27">
       <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
@@ -1373,10 +1371,10 @@
       <c r="X10" s="42"/>
       <c r="Y10" s="42"/>
     </row>
-    <row r="11" spans="2:27" ht="16" thickBot="1">
+    <row r="11" spans="2:27" ht="15.6" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1403,25 +1401,25 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="2:27" ht="18" thickTop="1">
-      <c r="B12" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="65"/>
+      <c r="B12" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="64"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
@@ -1433,13 +1431,13 @@
     <row r="13" spans="2:27">
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
       <c r="G13" s="46"/>
-      <c r="H13" s="53"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="46"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1461,13 +1459,13 @@
     <row r="14" spans="2:27">
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="53"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
@@ -1489,13 +1487,13 @@
     <row r="15" spans="2:27">
       <c r="B15" s="7"/>
       <c r="C15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="53"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
@@ -1517,7 +1515,7 @@
     <row r="16" spans="2:27">
       <c r="B16" s="7"/>
       <c r="C16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1542,10 +1540,10 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="2:26" ht="16" thickBot="1">
+    <row r="17" spans="2:26" ht="15.6" thickBot="1">
       <c r="B17" s="20"/>
       <c r="C17" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1571,10 +1569,10 @@
       <c r="Y17" s="17"/>
     </row>
     <row r="18" spans="2:26" ht="18" thickTop="1">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1587,7 +1585,7 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="52"/>
+      <c r="P18" s="56"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
@@ -1601,10 +1599,10 @@
     <row r="19" spans="2:26">
       <c r="B19" s="7"/>
       <c r="C19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="49"/>
@@ -1657,7 +1655,7 @@
     <row r="21" spans="2:26">
       <c r="B21" s="7"/>
       <c r="C21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1682,10 +1680,10 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="2:26" ht="17.5">
+    <row r="22" spans="2:26" ht="17.399999999999999">
       <c r="B22" s="7"/>
       <c r="C22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="3"/>
@@ -1713,7 +1711,7 @@
     <row r="23" spans="2:26">
       <c r="B23" s="7"/>
       <c r="C23" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1738,10 +1736,10 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="2:26" ht="16" thickBot="1">
+    <row r="24" spans="2:26" ht="15.6" thickBot="1">
       <c r="B24" s="22"/>
       <c r="C24" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -1767,15 +1765,15 @@
       <c r="Y24" s="17"/>
     </row>
     <row r="25" spans="2:26" ht="18" thickTop="1">
-      <c r="B25" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="64"/>
+      <c r="B25" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="63"/>
       <c r="D25" s="37"/>
       <c r="E25" s="25"/>
       <c r="F25" s="24"/>
       <c r="G25" s="38"/>
-      <c r="H25" s="54"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -1790,21 +1788,21 @@
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="56"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="2:26">
       <c r="B26" s="7"/>
       <c r="C26" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="29"/>
       <c r="F26" s="32"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="55"/>
+      <c r="H26" s="54"/>
       <c r="I26" s="32"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
@@ -1827,13 +1825,13 @@
     <row r="27" spans="2:26">
       <c r="B27" s="7"/>
       <c r="C27" s="40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="30"/>
       <c r="G27" s="47"/>
-      <c r="H27" s="56"/>
+      <c r="H27" s="55"/>
       <c r="I27" s="30"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
@@ -1841,14 +1839,14 @@
       <c r="M27" s="28"/>
       <c r="N27" s="34"/>
       <c r="O27" s="34"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="41"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="4"/>
       <c r="X27" s="41"/>
       <c r="Y27" s="30"/>
       <c r="Z27" s="27"/>
@@ -1856,13 +1854,13 @@
     <row r="28" spans="2:26">
       <c r="B28" s="7"/>
       <c r="C28" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
       <c r="F28" s="30"/>
       <c r="G28" s="47"/>
-      <c r="H28" s="56"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="30"/>
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
@@ -1870,14 +1868,14 @@
       <c r="M28" s="28"/>
       <c r="N28" s="34"/>
       <c r="O28" s="34"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
       <c r="X28" s="41"/>
       <c r="Y28" s="41"/>
       <c r="Z28" s="27"/>
@@ -1885,13 +1883,13 @@
     <row r="29" spans="2:26">
       <c r="B29" s="38"/>
       <c r="C29" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
       <c r="F29" s="30"/>
       <c r="G29" s="47"/>
-      <c r="H29" s="56"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="30"/>
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
@@ -1907,8 +1905,8 @@
       <c r="U29" s="28"/>
       <c r="V29" s="31"/>
       <c r="W29" s="31"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="41"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="4"/>
       <c r="Z29" s="27"/>
     </row>
     <row r="30" spans="2:26">

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\Studium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69CDFE0-BA35-4AA2-9A9D-5CCA25B012C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A4B42-45C0-4531-9B34-E368D59EADDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -758,6 +758,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,8 +772,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1067,7 +1067,7 @@
   <dimension ref="B2:AA30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.69921875" defaultRowHeight="15"/>
@@ -1081,53 +1081,53 @@
   <sheetData>
     <row r="2" spans="2:27" ht="15.45" customHeight="1">
       <c r="B2" s="10"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
       <c r="X2" s="60"/>
       <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="2:27" ht="15.45" customHeight="1">
       <c r="B3" s="9"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
       <c r="X3" s="60"/>
       <c r="Y3" s="60"/>
     </row>
@@ -1232,10 +1232,10 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="2:27" ht="18" thickTop="1">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1401,10 +1401,10 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="2:27" ht="18" thickTop="1">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1413,13 +1413,13 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
@@ -1569,10 +1569,10 @@
       <c r="Y17" s="17"/>
     </row>
     <row r="18" spans="2:26" ht="18" thickTop="1">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1585,11 +1585,11 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="13"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="56"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="12"/>
+      <c r="T18" s="13"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
@@ -1611,13 +1611,13 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="46"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="46"/>
       <c r="P19" s="46"/>
       <c r="Q19" s="46"/>
       <c r="R19" s="46"/>
       <c r="S19" s="46"/>
-      <c r="T19" s="3"/>
+      <c r="T19" s="46"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -1640,9 +1640,9 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="46"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="46"/>
-      <c r="Q20" s="3"/>
+      <c r="Q20" s="46"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -1669,10 +1669,10 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="46"/>
+      <c r="P21" s="3"/>
       <c r="Q21" s="46"/>
       <c r="R21" s="46"/>
-      <c r="S21" s="3"/>
+      <c r="S21" s="46"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
@@ -1698,10 +1698,10 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="46"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="46"/>
       <c r="S22" s="46"/>
-      <c r="T22" s="3"/>
+      <c r="T22" s="46"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -1727,10 +1727,10 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="46"/>
+      <c r="R23" s="3"/>
       <c r="S23" s="46"/>
       <c r="T23" s="46"/>
-      <c r="U23" s="3"/>
+      <c r="U23" s="46"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -1757,18 +1757,18 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="16"/>
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
       <c r="Y24" s="17"/>
     </row>
     <row r="25" spans="2:26" ht="18" thickTop="1">
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="37"/>
       <c r="E25" s="25"/>
       <c r="F25" s="24"/>
@@ -1788,7 +1788,7 @@
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
-      <c r="W25" s="66"/>
+      <c r="W25" s="62"/>
       <c r="X25" s="56"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="2"/>
@@ -1905,7 +1905,7 @@
       <c r="U29" s="28"/>
       <c r="V29" s="31"/>
       <c r="W29" s="31"/>
-      <c r="X29" s="65"/>
+      <c r="X29" s="61"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="27"/>
     </row>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\Studium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A4B42-45C0-4531-9B34-E368D59EADDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85598E7-11C8-4B6F-8D8A-452A74485B2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1067,7 +1067,7 @@
   <dimension ref="B2:AA30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.69921875" defaultRowHeight="15"/>
@@ -1586,12 +1586,12 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
@@ -1618,8 +1618,8 @@
       <c r="R19" s="46"/>
       <c r="S19" s="46"/>
       <c r="T19" s="46"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -1641,10 +1641,10 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -1670,11 +1670,11 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
       <c r="S21" s="46"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -1699,11 +1699,11 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
       <c r="T22" s="46"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -1728,11 +1728,11 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
       <c r="U23" s="46"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
@@ -1758,10 +1758,10 @@
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="16"/>
       <c r="Y24" s="17"/>
     </row>
     <row r="25" spans="2:26" ht="18" thickTop="1">
@@ -1788,8 +1788,8 @@
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="56"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="2"/>
     </row>
@@ -1817,9 +1817,9 @@
       <c r="T26" s="34"/>
       <c r="U26" s="34"/>
       <c r="V26" s="34"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="29"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="41"/>
       <c r="Z26" s="27"/>
     </row>
     <row r="27" spans="2:26">
@@ -1846,9 +1846,9 @@
       <c r="T27" s="57"/>
       <c r="U27" s="57"/>
       <c r="V27" s="57"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="30"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="4"/>
       <c r="Z27" s="27"/>
     </row>
     <row r="28" spans="2:26">
@@ -1876,7 +1876,7 @@
       <c r="U28" s="57"/>
       <c r="V28" s="57"/>
       <c r="W28" s="57"/>
-      <c r="X28" s="41"/>
+      <c r="X28" s="57"/>
       <c r="Y28" s="41"/>
       <c r="Z28" s="27"/>
     </row>
